--- a/文档/通讯帧.xlsx
+++ b/文档/通讯帧.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>字节</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -221,11 +221,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>68 10 10 10 10 01 01 01 8c 00 10 00 1c 20 00 16 12 20 11 16 15 00 60 00 70 12 34 11 22 16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">68 10 11 11 11 22 22 22 00 00 10 00 1c 20 16 12 20 22 23 13 47 65 36 77 05 55 aa 12 34 16 </t>
+    <t xml:space="preserve">68 10 11 11 11 22 22 22 00 00 10 00 1c 20 00 16 12 20 22 23 13 47 65 36 77 05 55 aa 12 34 16 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -604,7 +601,7 @@
   <dimension ref="A2:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -742,9 +739,6 @@
       <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="14" spans="1:5" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -804,7 +798,7 @@
         <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
